--- a/StructureDefinition-profile-DeviceUsage-for-DeviceUseStatement.xlsx
+++ b/StructureDefinition-profile-DeviceUsage-for-DeviceUseStatement.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2176" uniqueCount="368">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.6727806-06:00</t>
+    <t>2026-02-09T22:05:43.0751913-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -428,38 +428,145 @@
     <t>DeviceUseStatement.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>DeviceUseStatement.extension:category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceUsage.category|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DeviceUsage.category from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This attribute indicates a category for the statement - The device statement may be made in an inpatient or outpatient settting (inpatient | outpatient | community | patientspecified).</t>
+  </si>
+  <si>
+    <t>Element `DeviceUsage.category` is will have a context of DeviceUseStatement based on following the parent source element upwards and mapping to `DeviceUseStatement`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>DeviceUseStatement.extension:usageStatus</t>
+  </si>
+  <si>
+    <t>usageStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceUsage.usageStatus|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DeviceUsage.usageStatus from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The status of the device usage, for example always, sometimes, never. This is not the same as the status of the statement.</t>
+  </si>
+  <si>
+    <t>Element `DeviceUsage.usageStatus` is will have a context of DeviceUseStatement based on following the parent source element upwards and mapping to `DeviceUseStatement`.</t>
+  </si>
+  <si>
+    <t>DeviceUseStatement.extension:usageReason</t>
+  </si>
+  <si>
+    <t>usageReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceUsage.usageReason|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DeviceUsage.usageReason from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The reason for asserting the usage status - for example forgot, lost, stolen, broken.</t>
+  </si>
+  <si>
+    <t>Element `DeviceUsage.usageReason` is will have a context of DeviceUseStatement based on following the parent source element upwards and mapping to `DeviceUseStatement`.</t>
+  </si>
+  <si>
+    <t>DeviceUseStatement.extension:adherence</t>
+  </si>
+  <si>
+    <t>adherence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceUsage.adherence|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DeviceUsage.adherence from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This indicates how or if the device is being used.</t>
+  </si>
+  <si>
+    <t>Element `DeviceUsage.adherence` is will have a context of DeviceUseStatement based on following the parent source element upwards and mapping to `DeviceUseStatement`.</t>
+  </si>
+  <si>
+    <t>DeviceUseStatement.extension:context</t>
+  </si>
+  <si>
+    <t>context</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DeviceUsage.context from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Encounter,http://hl7.org/fhir/StructureDefinition/EpisodeOfCare in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DeviceUsage.context` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `DeviceUsage.context` is will have a context of DeviceUseStatement based on following the parent source element upwards and mapping to `DeviceUseStatement`.</t>
+  </si>
+  <si>
+    <t>DeviceUseStatement.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>DeviceUseStatement.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -573,20 +680,13 @@
     <t>DeviceUseStatement.status.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>DeviceUseStatement.status.extension:status</t>
+  </si>
+  <si>
+    <t>status</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceUsage.status|0.0.1-snapshot-3}
@@ -596,8 +696,8 @@
     <t>Cross-version extension for DeviceUsage.status from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
+    <t>Note that the target element context `DeviceUseStatement.status` is a modifier element, so this extension does not need to be defined as a modifier.
+Element `DeviceUsage.status` is mapped to FHIR R4 element `DeviceUseStatement.status`.</t>
   </si>
   <si>
     <t>DeviceUseStatement.status.value</t>
@@ -665,17 +765,20 @@
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceUsage.derivedFrom|0.0.1-snapshot-3}
-</t>
+    <t>DeviceUseStatement.derivedFrom.extension:derivedFrom</t>
+  </si>
+  <si>
+    <t>derivedFrom</t>
   </si>
   <si>
     <t>Cross-version extension for DeviceUsage.derivedFrom from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Allows linking the DeviceUsage to the underlying Request, or to other information that supports or is used to derive the DeviceUsage.</t>
-  </si>
-  <si>
-    <t>The most common use cases for deriving a DeviceUsage comes from creating it from a request or from an observation or a claim. it should be noted that the amount of information that is available varies from the type resource that you derive the DeviceUsage from.</t>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/DocumentReference in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DeviceUsage.derivedFrom` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `DeviceUsage.derivedFrom` is mapped to FHIR R4 element `DeviceUseStatement.derivedFrom`.</t>
   </si>
   <si>
     <t>DeviceUseStatement.derivedFrom.reference</t>
@@ -824,11 +927,20 @@
     <t>DeviceUseStatement.source.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceUsage.informationSource|0.0.1-snapshot-3}
-</t>
+    <t>DeviceUseStatement.source.extension:informationSource</t>
+  </si>
+  <si>
+    <t>informationSource</t>
   </si>
   <si>
     <t>Cross-version extension for DeviceUsage.informationSource from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Organization in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DeviceUsage.informationSource` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `DeviceUsage.informationSource` is mapped to FHIR R4 element `DeviceUseStatement.source`.</t>
   </si>
   <si>
     <t>DeviceUseStatement.source.reference</t>
@@ -865,6 +977,12 @@
     <t>DeviceUseStatement.device.extension</t>
   </si>
   <si>
+    <t>DeviceUseStatement.device.extension:device</t>
+  </si>
+  <si>
+    <t>device</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceUsage.device|0.0.1-snapshot-3}
 </t>
   </si>
@@ -875,6 +993,9 @@
     <t>Code or Reference to device used.</t>
   </si>
   <si>
+    <t>Element `DeviceUsage.device` is mapped to FHIR R4 element `DeviceUseStatement.device`.</t>
+  </si>
+  <si>
     <t>DeviceUseStatement.device.reference</t>
   </si>
   <si>
@@ -964,11 +1085,20 @@
     <t>DeviceUseStatement.bodySite.extension</t>
   </si>
   <si>
+    <t>DeviceUseStatement.bodySite.extension:bodySite</t>
+  </si>
+  <si>
+    <t>bodySite</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceUsage.bodySite|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for DeviceUsage.bodySite from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `DeviceUsage.bodySite` is mapped to FHIR R4 element `DeviceUseStatement.bodySite`.</t>
   </si>
   <si>
     <t>DeviceUseStatement.bodySite.coding</t>
@@ -1343,7 +1473,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO53"/>
+  <dimension ref="A1:AO58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1352,9 +1482,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.80859375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.6171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="36.80859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="15.94921875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -2343,7 +2473,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2362,17 +2492,15 @@
         <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>138</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>78</v>
@@ -2409,16 +2537,14 @@
         <v>78</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>139</v>
@@ -2448,7 +2574,7 @@
         <v>78</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
@@ -2456,11 +2582,13 @@
         <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2473,26 +2601,24 @@
         <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>78</v>
       </c>
@@ -2540,7 +2666,7 @@
         <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2549,7 +2675,7 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>140</v>
@@ -2567,17 +2693,19 @@
         <v>78</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>78</v>
       </c>
@@ -2586,7 +2714,7 @@
         <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>78</v>
@@ -2595,18 +2723,20 @@
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>78</v>
@@ -2655,7 +2785,7 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -2664,19 +2794,19 @@
         <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>78</v>
@@ -2687,14 +2817,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="D12" t="s" s="2">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2710,21 +2842,21 @@
         <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
         <v>158</v>
       </c>
+      <c r="N12" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>78</v>
       </c>
@@ -2772,7 +2904,7 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -2781,13 +2913,13 @@
         <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>78</v>
@@ -2796,26 +2928,28 @@
         <v>78</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>161</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>89</v>
@@ -2824,13 +2958,13 @@
         <v>78</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>163</v>
@@ -2865,13 +2999,13 @@
         <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>78</v>
@@ -2889,44 +3023,46 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>172</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="D14" t="s" s="2">
         <v>78</v>
       </c>
@@ -2947,15 +3083,17 @@
         <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>78</v>
@@ -3004,19 +3142,19 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>78</v>
@@ -3036,18 +3174,18 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>80</v>
@@ -3056,22 +3194,26 @@
         <v>78</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>78</v>
       </c>
@@ -3107,17 +3249,19 @@
         <v>78</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AC15" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3144,15 +3288,15 @@
         <v>78</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3160,10 +3304,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>78</v>
@@ -3172,20 +3316,18 @@
         <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>78</v>
@@ -3234,7 +3376,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3243,19 +3385,19 @@
         <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>78</v>
@@ -3266,21 +3408,21 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>78</v>
@@ -3289,19 +3431,21 @@
         <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="O17" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>78</v>
       </c>
@@ -3349,22 +3493,22 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>78</v>
@@ -3373,18 +3517,18 @@
         <v>78</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>78</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3401,21 +3545,23 @@
         <v>78</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>191</v>
+        <v>109</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>78</v>
@@ -3440,13 +3586,13 @@
         <v>78</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>78</v>
+        <v>200</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>78</v>
@@ -3464,7 +3610,7 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>89</v>
@@ -3479,27 +3625,27 @@
         <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>78</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3510,7 +3656,7 @@
         <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>78</v>
@@ -3519,20 +3665,18 @@
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>78</v>
@@ -3581,19 +3725,19 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>78</v>
@@ -3613,10 +3757,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3624,10 +3768,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>78</v>
@@ -3639,13 +3783,13 @@
         <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>203</v>
+        <v>135</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>204</v>
+        <v>136</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3684,31 +3828,29 @@
         <v>78</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC20" s="2"/>
       <c r="AD20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>78</v>
@@ -3723,17 +3865,19 @@
         <v>78</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>205</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="D21" t="s" s="2">
         <v>78</v>
       </c>
@@ -3742,7 +3886,7 @@
         <v>89</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>78</v>
@@ -3754,15 +3898,17 @@
         <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>135</v>
+        <v>215</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>179</v>
+        <v>216</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>78</v>
@@ -3799,19 +3945,19 @@
         <v>78</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>181</v>
+        <v>78</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>207</v>
+        <v>78</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -3820,7 +3966,7 @@
         <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>140</v>
@@ -3843,10 +3989,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3857,7 +4003,7 @@
         <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>78</v>
@@ -3869,17 +4015,15 @@
         <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>78</v>
@@ -3928,19 +4072,19 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>78</v>
@@ -3960,10 +4104,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3971,7 +4115,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>89</v>
@@ -3986,17 +4130,15 @@
         <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>174</v>
+        <v>222</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>78</v>
@@ -4045,42 +4187,42 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>217</v>
+        <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>78</v>
+        <v>225</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>78</v>
+        <v>226</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>78</v>
+        <v>227</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4091,7 +4233,7 @@
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>78</v>
@@ -4103,16 +4245,16 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>103</v>
+        <v>229</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4138,13 +4280,13 @@
         <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>222</v>
+        <v>78</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>223</v>
+        <v>78</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>224</v>
+        <v>78</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>78</v>
@@ -4162,13 +4304,13 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>78</v>
@@ -4189,15 +4331,15 @@
         <v>78</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4217,20 +4359,18 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>147</v>
+        <v>207</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>78</v>
@@ -4279,7 +4419,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4291,7 +4431,7 @@
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>78</v>
@@ -4306,15 +4446,15 @@
         <v>78</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4325,7 +4465,7 @@
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>78</v>
@@ -4334,20 +4474,18 @@
         <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>233</v>
+        <v>135</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>78</v>
@@ -4384,31 +4522,31 @@
         <v>78</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>78</v>
+        <v>238</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>78</v>
@@ -4423,17 +4561,19 @@
         <v>78</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="D27" t="s" s="2">
         <v>78</v>
       </c>
@@ -4451,18 +4591,20 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>238</v>
+        <v>168</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>78</v>
@@ -4511,28 +4653,28 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>241</v>
+        <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>243</v>
+        <v>78</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>78</v>
@@ -4569,15 +4711,17 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>78</v>
@@ -4626,7 +4770,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -4635,7 +4779,7 @@
         <v>89</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>78</v>
+        <v>249</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>101</v>
@@ -4644,16 +4788,16 @@
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>248</v>
+        <v>78</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>249</v>
+        <v>78</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29">
@@ -4684,15 +4828,17 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>78</v>
@@ -4717,13 +4863,13 @@
         <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>78</v>
+        <v>254</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>78</v>
+        <v>256</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>78</v>
@@ -4741,7 +4887,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -4756,27 +4902,27 @@
         <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>254</v>
+        <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>255</v>
+        <v>78</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4796,18 +4942,20 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>203</v>
+        <v>259</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>78</v>
@@ -4856,7 +5004,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>177</v>
+        <v>262</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -4868,7 +5016,7 @@
         <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>78</v>
@@ -4883,15 +5031,15 @@
         <v>78</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>205</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4899,11 +5047,11 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G31" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
       </c>
@@ -4911,18 +5059,20 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>135</v>
+        <v>207</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>179</v>
+        <v>265</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>78</v>
@@ -4959,31 +5109,31 @@
         <v>78</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>181</v>
+        <v>78</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>207</v>
+        <v>78</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>183</v>
+        <v>268</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>78</v>
@@ -4998,15 +5148,15 @@
         <v>78</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5026,16 +5176,16 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5086,28 +5236,28 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>183</v>
+        <v>269</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>78</v>
+        <v>273</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>78</v>
+        <v>274</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>78</v>
+        <v>275</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>78</v>
@@ -5118,10 +5268,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5144,17 +5294,15 @@
         <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>174</v>
+        <v>277</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>213</v>
+        <v>278</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>78</v>
@@ -5203,7 +5351,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>216</v>
+        <v>276</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5212,7 +5360,7 @@
         <v>89</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>217</v>
+        <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>101</v>
@@ -5221,24 +5369,24 @@
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>78</v>
+        <v>280</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>78</v>
+        <v>281</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5261,17 +5409,15 @@
         <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>103</v>
+        <v>283</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>219</v>
+        <v>284</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>78</v>
@@ -5296,13 +5442,13 @@
         <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>222</v>
+        <v>78</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>223</v>
+        <v>78</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>224</v>
+        <v>78</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>78</v>
@@ -5320,7 +5466,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>225</v>
+        <v>282</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5335,27 +5481,27 @@
         <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>78</v>
+        <v>286</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>78</v>
+        <v>287</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5375,20 +5521,18 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>147</v>
+        <v>207</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>78</v>
@@ -5437,7 +5581,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5449,7 +5593,7 @@
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
@@ -5464,15 +5608,15 @@
         <v>78</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5483,7 +5627,7 @@
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
@@ -5492,20 +5636,18 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>233</v>
+        <v>135</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -5542,31 +5684,31 @@
         <v>78</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>78</v>
+        <v>238</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
@@ -5581,23 +5723,25 @@
         <v>78</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="D37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>89</v>
@@ -5609,18 +5753,20 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>265</v>
+        <v>168</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -5669,28 +5815,28 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>264</v>
+        <v>212</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>268</v>
+        <v>78</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>255</v>
+        <v>78</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>78</v>
@@ -5701,10 +5847,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5724,18 +5870,20 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>203</v>
+        <v>245</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>78</v>
@@ -5784,7 +5932,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>177</v>
+        <v>248</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -5793,10 +5941,10 @@
         <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>78</v>
+        <v>249</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
@@ -5811,15 +5959,15 @@
         <v>78</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>205</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5827,11 +5975,11 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G39" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H39" t="s" s="2">
         <v>78</v>
       </c>
@@ -5839,18 +5987,20 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>179</v>
+        <v>251</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>78</v>
@@ -5875,43 +6025,43 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>78</v>
+        <v>254</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>78</v>
+        <v>256</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>181</v>
+        <v>78</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>207</v>
+        <v>78</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>183</v>
+        <v>257</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>78</v>
@@ -5926,15 +6076,15 @@
         <v>78</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5942,7 +6092,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>89</v>
@@ -5954,18 +6104,20 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>271</v>
+        <v>180</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>78</v>
@@ -6014,19 +6166,19 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>183</v>
+        <v>262</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>78</v>
@@ -6041,15 +6193,15 @@
         <v>78</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>78</v>
+        <v>263</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6072,16 +6224,16 @@
         <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>213</v>
+        <v>265</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>214</v>
+        <v>266</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>215</v>
+        <v>267</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6131,7 +6283,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>216</v>
+        <v>268</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6140,7 +6292,7 @@
         <v>89</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>217</v>
+        <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>101</v>
@@ -6163,10 +6315,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6174,7 +6326,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>89</v>
@@ -6189,17 +6341,15 @@
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>103</v>
+        <v>300</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>219</v>
+        <v>301</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -6224,13 +6374,13 @@
         <v>78</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>222</v>
+        <v>78</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>223</v>
+        <v>78</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>224</v>
+        <v>78</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>78</v>
@@ -6248,10 +6398,10 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>225</v>
+        <v>299</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>89</v>
@@ -6266,24 +6416,24 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>78</v>
+        <v>303</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>78</v>
+        <v>287</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6303,20 +6453,18 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>147</v>
+        <v>207</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -6365,7 +6513,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6377,7 +6525,7 @@
         <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>78</v>
@@ -6392,15 +6540,15 @@
         <v>78</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6408,10 +6556,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>78</v>
@@ -6420,20 +6568,18 @@
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>233</v>
+        <v>135</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>78</v>
@@ -6470,31 +6616,31 @@
         <v>78</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>78</v>
+        <v>238</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>78</v>
@@ -6509,26 +6655,28 @@
         <v>78</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="C45" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="D45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>78</v>
@@ -6537,18 +6685,20 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>78</v>
@@ -6597,7 +6747,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>278</v>
+        <v>212</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -6609,16 +6759,16 @@
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>282</v>
+        <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>283</v>
+        <v>78</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>284</v>
+        <v>78</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>78</v>
@@ -6629,10 +6779,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6643,7 +6793,7 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>78</v>
@@ -6655,15 +6805,17 @@
         <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>286</v>
+        <v>207</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>287</v>
+        <v>245</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -6712,42 +6864,42 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>285</v>
+        <v>248</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>78</v>
+        <v>249</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>289</v>
+        <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>284</v>
+        <v>78</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>290</v>
+        <v>78</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>291</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6770,18 +6922,18 @@
         <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>279</v>
+        <v>103</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>78</v>
       </c>
@@ -6805,13 +6957,13 @@
         <v>78</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>296</v>
+        <v>254</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>297</v>
+        <v>255</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>298</v>
+        <v>256</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>78</v>
@@ -6829,7 +6981,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -6844,7 +6996,7 @@
         <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>299</v>
+        <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>78</v>
@@ -6856,15 +7008,15 @@
         <v>78</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>300</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6884,18 +7036,20 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>203</v>
+        <v>259</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>78</v>
@@ -6944,7 +7098,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>177</v>
+        <v>262</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -6956,7 +7110,7 @@
         <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>78</v>
@@ -6971,15 +7125,15 @@
         <v>78</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>205</v>
+        <v>263</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6987,11 +7141,11 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G49" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G49" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H49" t="s" s="2">
         <v>78</v>
       </c>
@@ -6999,18 +7153,20 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>135</v>
+        <v>207</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>179</v>
+        <v>265</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>78</v>
@@ -7047,31 +7203,31 @@
         <v>78</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>181</v>
+        <v>78</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>207</v>
+        <v>78</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>183</v>
+        <v>268</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>78</v>
@@ -7086,15 +7242,15 @@
         <v>78</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7105,7 +7261,7 @@
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>78</v>
@@ -7114,16 +7270,16 @@
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7174,7 +7330,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>183</v>
+        <v>316</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7186,16 +7342,16 @@
         <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>78</v>
+        <v>320</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>78</v>
+        <v>321</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>78</v>
+        <v>322</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>78</v>
@@ -7206,10 +7362,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7232,20 +7388,16 @@
         <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>78</v>
       </c>
@@ -7293,7 +7445,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7308,27 +7460,27 @@
         <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>78</v>
+        <v>327</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>78</v>
+        <v>322</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>313</v>
+        <v>329</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7351,19 +7503,17 @@
         <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>174</v>
+        <v>317</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>78</v>
@@ -7388,13 +7538,13 @@
         <v>78</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>78</v>
+        <v>334</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>78</v>
+        <v>335</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>78</v>
+        <v>336</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>78</v>
@@ -7412,7 +7562,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7427,7 +7577,7 @@
         <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>78</v>
+        <v>337</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>78</v>
@@ -7436,18 +7586,18 @@
         <v>78</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>320</v>
+        <v>78</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>321</v>
+        <v>338</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7458,7 +7608,7 @@
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>78</v>
@@ -7470,13 +7620,13 @@
         <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>323</v>
+        <v>207</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>324</v>
+        <v>234</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>325</v>
+        <v>235</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7527,33 +7677,620 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>322</v>
+        <v>210</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G54" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AI53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
+      <c r="H54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="D55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="O55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="P56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AK53" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO53" t="s" s="2">
+      <c r="AK56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="P57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO58" t="s" s="2">
         <v>78</v>
       </c>
     </row>

--- a/StructureDefinition-profile-DeviceUsage-for-DeviceUseStatement.xlsx
+++ b/StructureDefinition-profile-DeviceUsage-for-DeviceUseStatement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.0751913-06:00</t>
+    <t>2026-02-17T14:42:26.7905141-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -468,7 +468,7 @@
     <t>This attribute indicates a category for the statement - The device statement may be made in an inpatient or outpatient settting (inpatient | outpatient | community | patientspecified).</t>
   </si>
   <si>
-    <t>Element `DeviceUsage.category` is will have a context of DeviceUseStatement based on following the parent source element upwards and mapping to `DeviceUseStatement`.</t>
+    <t>Element `DeviceUsage.category` has a context of DeviceUseStatement based on following the parent source element upwards and mapping to `DeviceUseStatement`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -491,7 +491,7 @@
     <t>The status of the device usage, for example always, sometimes, never. This is not the same as the status of the statement.</t>
   </si>
   <si>
-    <t>Element `DeviceUsage.usageStatus` is will have a context of DeviceUseStatement based on following the parent source element upwards and mapping to `DeviceUseStatement`.</t>
+    <t>Element `DeviceUsage.usageStatus` has a context of DeviceUseStatement based on following the parent source element upwards and mapping to `DeviceUseStatement`.</t>
   </si>
   <si>
     <t>DeviceUseStatement.extension:usageReason</t>
@@ -510,7 +510,7 @@
     <t>The reason for asserting the usage status - for example forgot, lost, stolen, broken.</t>
   </si>
   <si>
-    <t>Element `DeviceUsage.usageReason` is will have a context of DeviceUseStatement based on following the parent source element upwards and mapping to `DeviceUseStatement`.</t>
+    <t>Element `DeviceUsage.usageReason` has a context of DeviceUseStatement based on following the parent source element upwards and mapping to `DeviceUseStatement`.</t>
   </si>
   <si>
     <t>DeviceUseStatement.extension:adherence</t>
@@ -529,7 +529,7 @@
     <t>This indicates how or if the device is being used.</t>
   </si>
   <si>
-    <t>Element `DeviceUsage.adherence` is will have a context of DeviceUseStatement based on following the parent source element upwards and mapping to `DeviceUseStatement`.</t>
+    <t>Element `DeviceUsage.adherence` has a context of DeviceUseStatement based on following the parent source element upwards and mapping to `DeviceUseStatement`.</t>
   </si>
   <si>
     <t>DeviceUseStatement.extension:context</t>
@@ -549,7 +549,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DeviceUsage.context` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `DeviceUsage.context` is will have a context of DeviceUseStatement based on following the parent source element upwards and mapping to `DeviceUseStatement`.</t>
+Element `DeviceUsage.context` has a context of DeviceUseStatement based on following the parent source element upwards and mapping to `DeviceUseStatement`.</t>
   </si>
   <si>
     <t>DeviceUseStatement.modifierExtension</t>
@@ -697,7 +697,7 @@
   </si>
   <si>
     <t>Note that the target element context `DeviceUseStatement.status` is a modifier element, so this extension does not need to be defined as a modifier.
-Element `DeviceUsage.status` is mapped to FHIR R4 element `DeviceUseStatement.status`.</t>
+Element `DeviceUsage.status` has is mapped to FHIR R4 element `DeviceUseStatement.status`, but has no comparisons.</t>
   </si>
   <si>
     <t>DeviceUseStatement.status.value</t>
@@ -778,7 +778,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DeviceUsage.derivedFrom` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `DeviceUsage.derivedFrom` is mapped to FHIR R4 element `DeviceUseStatement.derivedFrom`.</t>
+Element `DeviceUsage.derivedFrom` has is mapped to FHIR R4 element `DeviceUseStatement.derivedFrom`, but has no comparisons.</t>
   </si>
   <si>
     <t>DeviceUseStatement.derivedFrom.reference</t>
@@ -940,7 +940,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DeviceUsage.informationSource` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `DeviceUsage.informationSource` is mapped to FHIR R4 element `DeviceUseStatement.source`.</t>
+Element `DeviceUsage.informationSource` has is mapped to FHIR R4 element `DeviceUseStatement.source`, but has no comparisons.</t>
   </si>
   <si>
     <t>DeviceUseStatement.source.reference</t>
@@ -993,7 +993,7 @@
     <t>Code or Reference to device used.</t>
   </si>
   <si>
-    <t>Element `DeviceUsage.device` is mapped to FHIR R4 element `DeviceUseStatement.device`.</t>
+    <t>Element `DeviceUsage.device` has is mapped to FHIR R4 element `DeviceUseStatement.device`, but has no comparisons.</t>
   </si>
   <si>
     <t>DeviceUseStatement.device.reference</t>
@@ -1098,7 +1098,7 @@
     <t>Cross-version extension for DeviceUsage.bodySite from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `DeviceUsage.bodySite` is mapped to FHIR R4 element `DeviceUseStatement.bodySite`.</t>
+    <t>Element `DeviceUsage.bodySite` has is mapped to FHIR R4 element `DeviceUseStatement.bodySite`, but has no comparisons.</t>
   </si>
   <si>
     <t>DeviceUseStatement.bodySite.coding</t>

--- a/StructureDefinition-profile-DeviceUsage-for-DeviceUseStatement.xlsx
+++ b/StructureDefinition-profile-DeviceUsage-for-DeviceUseStatement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.7905141-06:00</t>
+    <t>2026-02-20T11:59:20.7866334-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/DeviceUseStatement|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/DeviceUseStatement</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -458,7 +458,7 @@
     <t>category</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceUsage.category|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceUsage.category}
 </t>
   </si>
   <si>
@@ -481,7 +481,7 @@
     <t>usageStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceUsage.usageStatus|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceUsage.usageStatus}
 </t>
   </si>
   <si>
@@ -500,7 +500,7 @@
     <t>usageReason</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceUsage.usageReason|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceUsage.usageReason}
 </t>
   </si>
   <si>
@@ -519,7 +519,7 @@
     <t>adherence</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceUsage.adherence|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceUsage.adherence}
 </t>
   </si>
   <si>
@@ -538,7 +538,7 @@
     <t>context</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+    <t xml:space="preserve">Extension {alternate-reference}
 </t>
   </si>
   <si>
@@ -689,7 +689,7 @@
     <t>status</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceUsage.status|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceUsage.status}
 </t>
   </si>
   <si>
@@ -983,7 +983,7 @@
     <t>device</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceUsage.device|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceUsage.device}
 </t>
   </si>
   <si>
@@ -1091,7 +1091,7 @@
     <t>bodySite</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceUsage.bodySite|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceUsage.bodySite}
 </t>
   </si>
   <si>

--- a/StructureDefinition-profile-DeviceUsage-for-DeviceUseStatement.xlsx
+++ b/StructureDefinition-profile-DeviceUsage-for-DeviceUseStatement.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2176" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="340">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.7866334-06:00</t>
+    <t>2026-02-21T13:36:54.2024029-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/DeviceUseStatement</t>
+    <t>http://hl7.org/fhir/StructureDefinition/DeviceUseStatement|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -458,7 +458,7 @@
     <t>category</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceUsage.category}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceUsage.category|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -481,7 +481,7 @@
     <t>usageStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceUsage.usageStatus}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceUsage.usageStatus|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -500,7 +500,7 @@
     <t>usageReason</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceUsage.usageReason}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceUsage.usageReason|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -519,7 +519,7 @@
     <t>adherence</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceUsage.adherence}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceUsage.adherence|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -530,26 +530,6 @@
   </si>
   <si>
     <t>Element `DeviceUsage.adherence` has a context of DeviceUseStatement based on following the parent source element upwards and mapping to `DeviceUseStatement`.</t>
-  </si>
-  <si>
-    <t>DeviceUseStatement.extension:context</t>
-  </si>
-  <si>
-    <t>context</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for DeviceUsage.context from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Encounter,http://hl7.org/fhir/StructureDefinition/EpisodeOfCare in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DeviceUsage.context` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `DeviceUsage.context` has a context of DeviceUseStatement based on following the parent source element upwards and mapping to `DeviceUseStatement`.</t>
   </si>
   <si>
     <t>DeviceUseStatement.modifierExtension</t>
@@ -689,7 +669,7 @@
     <t>status</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceUsage.status}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceUsage.status|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -697,7 +677,7 @@
   </si>
   <si>
     <t>Note that the target element context `DeviceUseStatement.status` is a modifier element, so this extension does not need to be defined as a modifier.
-Element `DeviceUsage.status` has is mapped to FHIR R4 element `DeviceUseStatement.status`, but has no comparisons.</t>
+Element `DeviceUsage.status` is mapped to FHIR R4 element `DeviceUseStatement.status` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>DeviceUseStatement.status.value</t>
@@ -747,7 +727,83 @@
     <t>The most common use cases for deriving a DeviceUseStatement comes from creating it from a request or from an observation or a claim. it should be noted that the amount of information that is available varies from the type resource that you derive the DeviceUseStatement from.</t>
   </si>
   <si>
-    <t>DeviceUseStatement.derivedFrom.id</t>
+    <t>DeviceUseStatement.timing[x]</t>
+  </si>
+  <si>
+    <t>Timing
+PerioddateTime</t>
+  </si>
+  <si>
+    <t>How often  the device was used</t>
+  </si>
+  <si>
+    <t>How often the device was used.</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>DeviceUse.applicationSchedule</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>DeviceUseStatement.recordedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>When statement was recorded</t>
+  </si>
+  <si>
+    <t>The time at which the statement was made/recorded.</t>
+  </si>
+  <si>
+    <t>ClinicalStatement.statementDateTime</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>DeviceUseStatement.source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Who made the statement</t>
+  </si>
+  <si>
+    <t>Who reported the device was being used by the patient.</t>
+  </si>
+  <si>
+    <t>Event.performer.actor</t>
+  </si>
+  <si>
+    <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>DeviceUseStatement.device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Device|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Reference to device used</t>
+  </si>
+  <si>
+    <t>The details of the device used.</t>
+  </si>
+  <si>
+    <t>DeviceUse.device</t>
+  </si>
+  <si>
+    <t>DeviceUseStatement.device.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -759,29 +815,32 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>DeviceUseStatement.derivedFrom.extension</t>
+    <t>DeviceUseStatement.device.extension</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>DeviceUseStatement.derivedFrom.extension:derivedFrom</t>
-  </si>
-  <si>
-    <t>derivedFrom</t>
-  </si>
-  <si>
-    <t>Cross-version extension for DeviceUsage.derivedFrom from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/DocumentReference in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DeviceUsage.derivedFrom` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `DeviceUsage.derivedFrom` has is mapped to FHIR R4 element `DeviceUseStatement.derivedFrom`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>DeviceUseStatement.derivedFrom.reference</t>
+    <t>DeviceUseStatement.device.extension:device</t>
+  </si>
+  <si>
+    <t>device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceUsage.device|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DeviceUsage.device from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Code or Reference to device used.</t>
+  </si>
+  <si>
+    <t>Element `DeviceUsage.device` is mapped to FHIR R4 element `DeviceUseStatement.device` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
+  </si>
+  <si>
+    <t>DeviceUseStatement.device.reference</t>
   </si>
   <si>
     <t>Literal reference, Relative, internal or absolute URL</t>
@@ -800,7 +859,7 @@
 </t>
   </si>
   <si>
-    <t>DeviceUseStatement.derivedFrom.type</t>
+    <t>DeviceUseStatement.device.type</t>
   </si>
   <si>
     <t>Type the reference refers to (e.g. "Patient")</t>
@@ -825,7 +884,7 @@
     <t>Reference.type</t>
   </si>
   <si>
-    <t>DeviceUseStatement.derivedFrom.identifier</t>
+    <t>DeviceUseStatement.device.identifier</t>
   </si>
   <si>
     <t>Logical reference, when literal reference is not known</t>
@@ -846,7 +905,7 @@
     <t>.identifier</t>
   </si>
   <si>
-    <t>DeviceUseStatement.derivedFrom.display</t>
+    <t>DeviceUseStatement.device.display</t>
   </si>
   <si>
     <t>Text alternative for the resource</t>
@@ -859,153 +918,6 @@
   </si>
   <si>
     <t>Reference.display</t>
-  </si>
-  <si>
-    <t>DeviceUseStatement.timing[x]</t>
-  </si>
-  <si>
-    <t>Timing
-PerioddateTime</t>
-  </si>
-  <si>
-    <t>How often  the device was used</t>
-  </si>
-  <si>
-    <t>How often the device was used.</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>DeviceUse.applicationSchedule</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>DeviceUseStatement.recordedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>When statement was recorded</t>
-  </si>
-  <si>
-    <t>The time at which the statement was made/recorded.</t>
-  </si>
-  <si>
-    <t>ClinicalStatement.statementDateTime</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>DeviceUseStatement.source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Who made the statement</t>
-  </si>
-  <si>
-    <t>Who reported the device was being used by the patient.</t>
-  </si>
-  <si>
-    <t>Event.performer.actor</t>
-  </si>
-  <si>
-    <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>DeviceUseStatement.source.id</t>
-  </si>
-  <si>
-    <t>DeviceUseStatement.source.extension</t>
-  </si>
-  <si>
-    <t>DeviceUseStatement.source.extension:informationSource</t>
-  </si>
-  <si>
-    <t>informationSource</t>
-  </si>
-  <si>
-    <t>Cross-version extension for DeviceUsage.informationSource from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Organization in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DeviceUsage.informationSource` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `DeviceUsage.informationSource` has is mapped to FHIR R4 element `DeviceUseStatement.source`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>DeviceUseStatement.source.reference</t>
-  </si>
-  <si>
-    <t>DeviceUseStatement.source.type</t>
-  </si>
-  <si>
-    <t>DeviceUseStatement.source.identifier</t>
-  </si>
-  <si>
-    <t>DeviceUseStatement.source.display</t>
-  </si>
-  <si>
-    <t>DeviceUseStatement.device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Device|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Reference to device used</t>
-  </si>
-  <si>
-    <t>The details of the device used.</t>
-  </si>
-  <si>
-    <t>DeviceUse.device</t>
-  </si>
-  <si>
-    <t>DeviceUseStatement.device.id</t>
-  </si>
-  <si>
-    <t>DeviceUseStatement.device.extension</t>
-  </si>
-  <si>
-    <t>DeviceUseStatement.device.extension:device</t>
-  </si>
-  <si>
-    <t>device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceUsage.device}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for DeviceUsage.device from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Code or Reference to device used.</t>
-  </si>
-  <si>
-    <t>Element `DeviceUsage.device` has is mapped to FHIR R4 element `DeviceUseStatement.device`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>DeviceUseStatement.device.reference</t>
-  </si>
-  <si>
-    <t>DeviceUseStatement.device.type</t>
-  </si>
-  <si>
-    <t>DeviceUseStatement.device.identifier</t>
-  </si>
-  <si>
-    <t>DeviceUseStatement.device.display</t>
   </si>
   <si>
     <t>DeviceUseStatement.reasonCode</t>
@@ -1091,14 +1003,14 @@
     <t>bodySite</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceUsage.bodySite}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceUsage.bodySite|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for DeviceUsage.bodySite from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `DeviceUsage.bodySite` has is mapped to FHIR R4 element `DeviceUseStatement.bodySite`, but has no comparisons.</t>
+    <t>Element `DeviceUsage.bodySite` is mapped to FHIR R4 element `DeviceUseStatement.bodySite` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>DeviceUseStatement.bodySite.coding</t>
@@ -1473,7 +1385,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO58"/>
+  <dimension ref="A1:AO43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1482,9 +1394,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="47.6171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="36.80859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.94921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="41.07421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.5390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.44140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -3058,43 +2970,43 @@
         <v>166</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C14" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="D14" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>78</v>
       </c>
@@ -3142,7 +3054,7 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3169,19 +3081,19 @@
         <v>78</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3194,26 +3106,22 @@
         <v>78</v>
       </c>
       <c r="I15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J15" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J15" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="K15" t="s" s="2">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N15" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="O15" t="s" s="2">
-        <v>177</v>
-      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>78</v>
       </c>
@@ -3261,7 +3169,7 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3273,34 +3181,34 @@
         <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3319,16 +3227,18 @@
         <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="O16" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>78</v>
       </c>
@@ -3376,7 +3286,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3391,61 +3301,61 @@
         <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>187</v>
+        <v>78</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
         <v>191</v>
       </c>
+      <c r="N17" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>78</v>
       </c>
@@ -3469,13 +3379,13 @@
         <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>78</v>
@@ -3493,13 +3403,13 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>78</v>
@@ -3508,27 +3418,27 @@
         <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>193</v>
+        <v>78</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3536,7 +3446,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>89</v>
@@ -3545,23 +3455,21 @@
         <v>78</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>109</v>
+        <v>201</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>78</v>
@@ -3586,13 +3494,13 @@
         <v>78</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>78</v>
@@ -3610,10 +3518,10 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>89</v>
@@ -3622,30 +3530,30 @@
         <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>203</v>
+        <v>78</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>205</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3653,10 +3561,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>78</v>
@@ -3668,13 +3576,13 @@
         <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>207</v>
+        <v>134</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>208</v>
+        <v>135</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>209</v>
+        <v>136</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3713,31 +3621,29 @@
         <v>78</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC19" s="2"/>
       <c r="AD19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>78</v>
@@ -3757,12 +3663,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="D20" t="s" s="2">
         <v>78</v>
       </c>
@@ -3771,7 +3679,7 @@
         <v>89</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>78</v>
@@ -3783,15 +3691,17 @@
         <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>135</v>
+        <v>210</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>78</v>
@@ -3828,17 +3738,19 @@
         <v>78</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC20" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -3847,7 +3759,7 @@
         <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>140</v>
@@ -3870,20 +3782,18 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>89</v>
@@ -3898,17 +3808,15 @@
         <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>78</v>
@@ -3957,19 +3865,19 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>78</v>
@@ -3989,10 +3897,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4000,7 +3908,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>89</v>
@@ -4012,16 +3920,16 @@
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4072,10 +3980,10 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>89</v>
@@ -4084,16 +3992,16 @@
         <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>78</v>
+        <v>219</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>78</v>
+        <v>220</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>78</v>
+        <v>221</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>78</v>
@@ -4104,10 +4012,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4115,10 +4023,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>78</v>
@@ -4130,15 +4038,17 @@
         <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>78</v>
@@ -4187,13 +4097,13 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>78</v>
@@ -4202,13 +4112,13 @@
         <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>225</v>
+        <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>226</v>
+        <v>78</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>227</v>
+        <v>78</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>78</v>
@@ -4219,10 +4129,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4233,7 +4143,7 @@
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>78</v>
@@ -4245,17 +4155,15 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>232</v>
-      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>78</v>
@@ -4304,13 +4212,13 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>78</v>
@@ -4319,13 +4227,13 @@
         <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>78</v>
+        <v>231</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>78</v>
+        <v>232</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>78</v>
+        <v>233</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>78</v>
@@ -4336,10 +4244,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4359,16 +4267,16 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4419,7 +4327,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4431,30 +4339,30 @@
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>78</v>
+        <v>238</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>78</v>
+        <v>239</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>236</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4465,7 +4373,7 @@
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>78</v>
@@ -4474,16 +4382,16 @@
         <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>134</v>
+        <v>241</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>135</v>
+        <v>242</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>136</v>
+        <v>243</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4522,40 +4430,40 @@
         <v>78</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>238</v>
+        <v>78</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>78</v>
+        <v>244</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
@@ -4566,20 +4474,18 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>89</v>
@@ -4591,20 +4497,18 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>168</v>
+        <v>247</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>78</v>
@@ -4653,28 +4557,28 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>78</v>
+        <v>250</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>78</v>
@@ -4685,10 +4589,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4708,20 +4612,18 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>78</v>
@@ -4770,7 +4672,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>248</v>
+        <v>204</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -4779,10 +4681,10 @@
         <v>89</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>249</v>
+        <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>78</v>
@@ -4797,15 +4699,15 @@
         <v>78</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>132</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4813,10 +4715,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>78</v>
@@ -4825,20 +4727,18 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>251</v>
+        <v>135</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>78</v>
@@ -4863,43 +4763,43 @@
         <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>254</v>
+        <v>78</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>255</v>
+        <v>78</v>
       </c>
       <c r="Z29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AC29" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AA29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AD29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>257</v>
+        <v>206</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>78</v>
@@ -4914,23 +4814,25 @@
         <v>78</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="C30" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="B30" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>89</v>
@@ -4942,19 +4844,19 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>180</v>
+        <v>259</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5004,19 +4906,19 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>262</v>
+        <v>206</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>78</v>
@@ -5031,15 +4933,15 @@
         <v>78</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>263</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5062,16 +4964,16 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5121,7 +5023,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5130,7 +5032,7 @@
         <v>89</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>78</v>
+        <v>268</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>101</v>
@@ -5179,15 +5081,17 @@
         <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>78</v>
@@ -5212,13 +5116,13 @@
         <v>78</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>78</v>
+        <v>273</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>78</v>
+        <v>274</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>78</v>
+        <v>275</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>78</v>
@@ -5236,7 +5140,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5251,27 +5155,27 @@
         <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>273</v>
+        <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>274</v>
+        <v>78</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>275</v>
+        <v>78</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5294,7 +5198,7 @@
         <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>277</v>
+        <v>174</v>
       </c>
       <c r="L33" t="s" s="2">
         <v>278</v>
@@ -5302,7 +5206,9 @@
       <c r="M33" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="N33" s="2"/>
+      <c r="N33" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>78</v>
@@ -5351,7 +5257,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5369,24 +5275,24 @@
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>280</v>
+        <v>78</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>281</v>
+        <v>78</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>78</v>
+        <v>282</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5409,7 +5315,7 @@
         <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>283</v>
+        <v>201</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>284</v>
@@ -5417,7 +5323,9 @@
       <c r="M34" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="N34" s="2"/>
+      <c r="N34" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>78</v>
@@ -5466,7 +5374,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5481,19 +5389,19 @@
         <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>286</v>
+        <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>287</v>
+        <v>78</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35">
@@ -5512,7 +5420,7 @@
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>78</v>
@@ -5521,16 +5429,16 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>207</v>
+        <v>289</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>234</v>
+        <v>290</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>235</v>
+        <v>291</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5581,42 +5489,42 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>210</v>
+        <v>288</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>78</v>
+        <v>292</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>78</v>
+        <v>293</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>78</v>
+        <v>294</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>236</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5636,16 +5544,16 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>134</v>
+        <v>296</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>135</v>
+        <v>297</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>136</v>
+        <v>298</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5684,19 +5592,19 @@
         <v>78</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>238</v>
+        <v>78</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>212</v>
+        <v>295</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5708,34 +5616,32 @@
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>78</v>
+        <v>299</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>78</v>
+        <v>294</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>78</v>
+        <v>300</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>78</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
         <v>78</v>
       </c>
@@ -5753,21 +5659,21 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>168</v>
+        <v>289</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
       </c>
@@ -5791,13 +5697,13 @@
         <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>78</v>
+        <v>306</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>78</v>
+        <v>307</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>78</v>
+        <v>308</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>78</v>
@@ -5815,22 +5721,22 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>212</v>
+        <v>302</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>78</v>
+        <v>309</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>78</v>
@@ -5842,15 +5748,15 @@
         <v>78</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>78</v>
+        <v>310</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5870,20 +5776,18 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>78</v>
@@ -5932,7 +5836,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>248</v>
+        <v>204</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -5941,10 +5845,10 @@
         <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>249</v>
+        <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
@@ -5959,15 +5863,15 @@
         <v>78</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>132</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5978,7 +5882,7 @@
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>78</v>
@@ -5987,20 +5891,18 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>251</v>
+        <v>135</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>78</v>
@@ -6025,43 +5927,43 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>254</v>
+        <v>78</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>255</v>
+        <v>78</v>
       </c>
       <c r="Z39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AC39" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AA39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AD39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>257</v>
+        <v>206</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>78</v>
@@ -6076,17 +5978,19 @@
         <v>78</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="D40" t="s" s="2">
         <v>78</v>
       </c>
@@ -6104,19 +6008,19 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>180</v>
+        <v>315</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>259</v>
+        <v>316</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>260</v>
+        <v>304</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>261</v>
+        <v>317</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6166,19 +6070,19 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>262</v>
+        <v>206</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>78</v>
@@ -6193,15 +6097,15 @@
         <v>78</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>263</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6212,7 +6116,7 @@
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>78</v>
@@ -6224,18 +6128,20 @@
         <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>207</v>
+        <v>319</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>265</v>
+        <v>320</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>266</v>
+        <v>321</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>78</v>
       </c>
@@ -6283,13 +6189,13 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>268</v>
+        <v>324</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>78</v>
@@ -6307,18 +6213,18 @@
         <v>78</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>78</v>
+        <v>325</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>132</v>
+        <v>326</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6326,7 +6232,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>89</v>
@@ -6341,16 +6247,20 @@
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>78</v>
       </c>
@@ -6398,10 +6308,10 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>89</v>
@@ -6416,24 +6326,24 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>303</v>
+        <v>78</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>287</v>
+        <v>78</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>78</v>
+        <v>333</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>78</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6444,7 +6354,7 @@
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
@@ -6456,13 +6366,13 @@
         <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>207</v>
+        <v>336</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>234</v>
+        <v>337</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>235</v>
+        <v>338</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6513,25 +6423,25 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>210</v>
+        <v>335</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>78</v>
+        <v>309</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>78</v>
+        <v>339</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>78</v>
@@ -6540,1757 +6450,6 @@
         <v>78</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q44" s="2"/>
-      <c r="R44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="D45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="O45" s="2"/>
-      <c r="P45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q45" s="2"/>
-      <c r="R45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="O46" s="2"/>
-      <c r="P46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q46" s="2"/>
-      <c r="R46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="O47" s="2"/>
-      <c r="P47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q47" s="2"/>
-      <c r="R47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O48" s="2"/>
-      <c r="P48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q48" s="2"/>
-      <c r="R48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="O49" s="2"/>
-      <c r="P49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q49" s="2"/>
-      <c r="R49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q50" s="2"/>
-      <c r="R50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q51" s="2"/>
-      <c r="R51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="P52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q52" s="2"/>
-      <c r="R52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q53" s="2"/>
-      <c r="R53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q54" s="2"/>
-      <c r="R54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="D55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="O55" s="2"/>
-      <c r="P55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q55" s="2"/>
-      <c r="R55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="P56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q56" s="2"/>
-      <c r="R56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="P57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q58" s="2"/>
-      <c r="R58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO58" t="s" s="2">
         <v>78</v>
       </c>
     </row>
